--- a/excelFiles/So_Far_Highest.xlsx
+++ b/excelFiles/So_Far_Highest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs_code\python\wrldc_soFar_highest\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F90FB-AC88-40BE-A7E0-DE2893DC7981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDBFB83-7D3A-42EC-BAD8-2F44B9E61348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>WR_DEM_MW</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Prev_Sofar_Highest_Timestamp</t>
+  </si>
+  <si>
+    <t>CENTRAL_SOLAR_MW</t>
   </si>
 </sst>
 </file>
@@ -557,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1166,19 +1169,19 @@
         <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C29">
-        <v>5588</v>
+        <v>761</v>
       </c>
       <c r="D29" s="5">
-        <v>44247.541666666664</v>
+        <v>43909.541666666664</v>
       </c>
       <c r="E29">
-        <v>5588</v>
+        <v>761</v>
       </c>
       <c r="F29" s="5">
-        <v>44247.541666666664</v>
+        <v>43909.541666666664</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -1187,19 +1190,19 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>6534</v>
+        <v>5588</v>
       </c>
       <c r="D30" s="5">
-        <v>44379.5</v>
+        <v>44247.541666666664</v>
       </c>
       <c r="E30">
-        <v>6534</v>
+        <v>5588</v>
       </c>
       <c r="F30" s="5">
-        <v>44379.5</v>
+        <v>44247.541666666664</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -1208,19 +1211,19 @@
         <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>3885</v>
+        <v>6534</v>
       </c>
       <c r="D31" s="5">
-        <v>44403.5</v>
+        <v>44379.5</v>
       </c>
       <c r="E31">
-        <v>3885</v>
+        <v>6534</v>
       </c>
       <c r="F31" s="5">
-        <v>44403.5</v>
+        <v>44379.5</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1229,19 +1232,19 @@
         <v>51</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>2943</v>
+        <v>3885</v>
       </c>
       <c r="D32" s="5">
-        <v>44285.458333333336</v>
+        <v>44403.5</v>
       </c>
       <c r="E32">
-        <v>2943</v>
+        <v>3885</v>
       </c>
       <c r="F32" s="5">
-        <v>44285.458333333336</v>
+        <v>44403.5</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -1250,19 +1253,19 @@
         <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>165</v>
+        <v>2943</v>
       </c>
       <c r="D33" s="5">
-        <v>44394.458333333336</v>
+        <v>44285.458333333336</v>
       </c>
       <c r="E33">
-        <v>165</v>
+        <v>2943</v>
       </c>
       <c r="F33" s="5">
-        <v>44394.458333333336</v>
+        <v>44285.458333333336</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -1271,19 +1274,19 @@
         <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>2612</v>
+        <v>165</v>
       </c>
       <c r="D34" s="5">
-        <v>44379.458333333336</v>
+        <v>44394.458333333336</v>
       </c>
       <c r="E34">
-        <v>2612</v>
+        <v>165</v>
       </c>
       <c r="F34" s="5">
-        <v>44379.458333333336</v>
+        <v>44394.458333333336</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -1292,60 +1295,61 @@
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>14582</v>
+        <v>2612</v>
       </c>
       <c r="D35" s="5">
-        <v>44379.5</v>
+        <v>44379.458333333336</v>
       </c>
       <c r="E35">
-        <v>14582</v>
+        <v>2612</v>
       </c>
       <c r="F35" s="5">
-        <v>44379.5</v>
+        <v>44379.458333333336</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>113.1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>44406</v>
+        <v>14582</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44379.5</v>
       </c>
       <c r="E36">
-        <v>113.1</v>
-      </c>
-      <c r="F36" s="6">
-        <v>44406</v>
-      </c>
+        <v>14582</v>
+      </c>
+      <c r="F36" s="5">
+        <v>44379.5</v>
+      </c>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>72.790000000000006</v>
+        <v>113.1</v>
       </c>
       <c r="D37" s="6">
-        <v>44039</v>
+        <v>44406</v>
       </c>
       <c r="E37">
-        <v>72.790000000000006</v>
+        <v>113.1</v>
       </c>
       <c r="F37" s="6">
-        <v>44039</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -1353,19 +1357,19 @@
         <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>44.42</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="D38" s="6">
-        <v>44408</v>
+        <v>44039</v>
       </c>
       <c r="E38">
-        <v>44.42</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="F38" s="6">
-        <v>44408</v>
+        <v>44039</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -1373,19 +1377,19 @@
         <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>47.05</v>
+        <v>44.42</v>
       </c>
       <c r="D39" s="6">
-        <v>44398</v>
+        <v>44408</v>
       </c>
       <c r="E39">
-        <v>47.05</v>
+        <v>44.42</v>
       </c>
       <c r="F39" s="6">
-        <v>44398</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1393,19 +1397,19 @@
         <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>268</v>
+        <v>47.05</v>
       </c>
       <c r="D40" s="6">
-        <v>44406</v>
+        <v>44398</v>
       </c>
       <c r="E40">
-        <v>268</v>
+        <v>47.05</v>
       </c>
       <c r="F40" s="6">
-        <v>44406</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1413,19 +1417,19 @@
         <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>19.100000000000001</v>
+        <v>268</v>
       </c>
       <c r="D41" s="6">
-        <v>44326</v>
+        <v>44406</v>
       </c>
       <c r="E41">
-        <v>19.100000000000001</v>
+        <v>268</v>
       </c>
       <c r="F41" s="6">
-        <v>44326</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1433,19 +1437,19 @@
         <v>52</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
-        <v>10.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D42" s="6">
-        <v>43903</v>
+        <v>44326</v>
       </c>
       <c r="E42">
-        <v>10.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F42" s="6">
-        <v>43903</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -1453,19 +1457,19 @@
         <v>52</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="D43" s="6">
-        <v>44287</v>
+        <v>43903</v>
       </c>
       <c r="E43">
-        <v>9.8000000000000007</v>
+        <v>10.1</v>
       </c>
       <c r="F43" s="6">
-        <v>44287</v>
+        <v>43903</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1473,19 +1477,19 @@
         <v>52</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
-        <v>1.19</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D44" s="6">
-        <v>43514</v>
+        <v>44287</v>
       </c>
       <c r="E44">
-        <v>1.19</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F44" s="6">
-        <v>43514</v>
+        <v>44287</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1493,40 +1497,39 @@
         <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45">
-        <v>7.88</v>
+        <v>1.19</v>
       </c>
       <c r="D45" s="6">
-        <v>43853</v>
+        <v>43514</v>
       </c>
       <c r="E45">
-        <v>7.88</v>
+        <v>1.19</v>
       </c>
       <c r="F45" s="6">
-        <v>43853</v>
-      </c>
-      <c r="G45" s="3"/>
+        <v>43514</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>42.58</v>
+        <v>7.88</v>
       </c>
       <c r="D46" s="6">
-        <v>44327</v>
+        <v>43853</v>
       </c>
       <c r="E46">
-        <v>42.58</v>
+        <v>7.88</v>
       </c>
       <c r="F46" s="6">
-        <v>44327</v>
+        <v>43853</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -1535,19 +1538,19 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>117.3</v>
+        <v>42.58</v>
       </c>
       <c r="D47" s="6">
-        <v>44406</v>
+        <v>44327</v>
       </c>
       <c r="E47">
-        <v>117.3</v>
+        <v>42.58</v>
       </c>
       <c r="F47" s="6">
-        <v>44406</v>
+        <v>44327</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -1556,19 +1559,19 @@
         <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>75.75</v>
+        <v>117.3</v>
       </c>
       <c r="D48" s="6">
-        <v>43673</v>
+        <v>44406</v>
       </c>
       <c r="E48">
-        <v>75.75</v>
+        <v>117.3</v>
       </c>
       <c r="F48" s="6">
-        <v>43673</v>
+        <v>44406</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -1577,19 +1580,19 @@
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>48.57</v>
+        <v>75.75</v>
       </c>
       <c r="D49" s="6">
-        <v>43264</v>
+        <v>43673</v>
       </c>
       <c r="E49">
-        <v>48.57</v>
+        <v>75.75</v>
       </c>
       <c r="F49" s="6">
-        <v>43264</v>
+        <v>43673</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -1598,19 +1601,19 @@
         <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50">
-        <v>1.19</v>
+        <v>48.57</v>
       </c>
       <c r="D50" s="6">
-        <v>43514</v>
+        <v>43264</v>
       </c>
       <c r="E50">
-        <v>1.19</v>
+        <v>48.57</v>
       </c>
       <c r="F50" s="6">
-        <v>43514</v>
+        <v>43264</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1619,19 +1622,19 @@
         <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>49.87</v>
+        <v>1.19</v>
       </c>
       <c r="D51" s="6">
-        <v>44398</v>
+        <v>43514</v>
       </c>
       <c r="E51">
-        <v>49.87</v>
+        <v>1.19</v>
       </c>
       <c r="F51" s="6">
-        <v>44398</v>
+        <v>43514</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -1640,21 +1643,42 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>49.87</v>
+      </c>
+      <c r="D52" s="6">
+        <v>44398</v>
+      </c>
+      <c r="E52">
+        <v>49.87</v>
+      </c>
+      <c r="F52" s="6">
+        <v>44398</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>280.55</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D53" s="6">
         <v>44406</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>280.55</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F53" s="6">
         <v>44406</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelFiles/So_Far_Highest.xlsx
+++ b/excelFiles/So_Far_Highest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vs_code\python\wrldc_soFar_highest\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDBFB83-7D3A-42EC-BAD8-2F44B9E61348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C73CC7-FAF2-4966-85B5-780C3753F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
